--- a/Datos/Database by set/Set with text box/Xlsx sets/Dark Ascension Tokens (TDKA).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Dark Ascension Tokens (TDKA).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,182 +444,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dark Ascension Checklist</t>
+          <t>('Dark Ascension Checklist', ['Card', '(You can mark this card to represent a double-faced card in your library or hand.)', '☐ Loyal Cathar {W}{W}', '☐ Soul Seizer {3}{U}{U}', '☐ Chosen of Markov {2}{B}', '☐ Ravenous Demon {3}{B}{B}', '☐ Afflicted Deserter {3}{R}', '☐ Hinterland Hermit {1}{R}', '☐ Mondronen Shaman {3}{R}', '☐ Lambholt Elder {2}{G}', '☐ Scorned Villager {1}{G}', '☐ Wolfbitten Captive {G}', '☐ Huntmaster of the Fells {2}{R}{G}', '☐ Chalice of Life {3}', '☐ Elbrus, the Binding Blade {7}'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Human', ['Token Creature — Human', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(You can mark this card to represent a double-faced card in your library or hand.)</t>
+          <t>('Sorin, Lord of Innistrad Emblem', ['Emblem — Sorin', 'Creatures you control get +1/+0.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>☐ Loyal Cathar {W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>☐ Soul Seizer {3}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>☐ Chosen of Markov {2}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>☐ Ravenous Demon {3}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>☐ Afflicted Deserter {3}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>☐ Hinterland Hermit {1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>☐ Mondronen Shaman {3}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>☐ Lambholt Elder {2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>☐ Scorned Villager {1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>☐ Wolfbitten Captive {G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>☐ Huntmaster of the Fells {2}{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>☐ Chalice of Life {3}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>☐ Elbrus, the Binding Blade {7}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Human</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Token Creature — Human</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sorin, Lord of Innistrad Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Emblem — Sorin</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Creatures you control get +1/+0.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Token Creature — Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Lifelink</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Vampire', ['Token Creature — Vampire', 'Lifelink', '1/1'])</t>
         </is>
       </c>
     </row>
